--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,13 +444,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006953951702897797</v>
+        <v>0.9899933483404169</v>
       </c>
       <c r="E2">
-        <v>0.006953951702897797</v>
+        <v>0.9899933483404169</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.03522189484552202</v>
+        <v>0.03932956086510201</v>
       </c>
       <c r="E3">
-        <v>0.03522189484552202</v>
+        <v>0.03932956086510201</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.999919769225965</v>
+        <v>0.9996041460549583</v>
       </c>
       <c r="E4">
-        <v>8.02307740349617E-05</v>
+        <v>0.0003958539450417131</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9999999082848872</v>
+        <v>0.9999999994217303</v>
       </c>
       <c r="E5">
-        <v>9.171511283767586E-08</v>
+        <v>5.782696543832344E-10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -503,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9999999999999951</v>
+        <v>0.9999999999992817</v>
       </c>
       <c r="E6">
-        <v>4.884981308350689E-15</v>
+        <v>7.183142969324763E-13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.7618263719222403</v>
+        <v>0.9782570946098773</v>
       </c>
       <c r="E7">
-        <v>0.2381736280777597</v>
+        <v>0.02174290539012269</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999625206616</v>
+        <v>0.9999999980778842</v>
       </c>
       <c r="E8">
-        <v>3.747933841058426E-08</v>
+        <v>1.922115799857238E-09</v>
       </c>
       <c r="F8">
-        <v>0.04499321058392525</v>
+        <v>0.6667153239250183</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>
